--- a/2021.xlsx
+++ b/2021.xlsx
@@ -644,82 +644,82 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>79.73636363636363</v>
+        <v>78.80128205128206</v>
       </c>
       <c r="D3">
-        <v>1.374173632805838</v>
+        <v>1.048075942914934</v>
       </c>
       <c r="E3">
-        <v>14.83333333333333</v>
+        <v>8.384615384615385</v>
       </c>
       <c r="F3">
-        <v>1.580622033590541</v>
+        <v>1.07714283472088</v>
       </c>
       <c r="G3">
-        <v>13.83333333333333</v>
+        <v>12.30769230769231</v>
       </c>
       <c r="H3">
-        <v>1.949107387457945</v>
+        <v>1.218787835097745</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>3.923076923076923</v>
       </c>
       <c r="J3">
-        <v>-0.06593406593406594</v>
+        <v>0.1814946619217082</v>
       </c>
       <c r="K3">
-        <v>0.386011826341529</v>
+        <v>0.04447663468118276</v>
       </c>
       <c r="L3">
-        <v>1.882148681728072</v>
+        <v>0.8056016899437566</v>
       </c>
       <c r="M3">
-        <v>2.50945922878118</v>
+        <v>1.626554786465178</v>
       </c>
       <c r="N3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O3">
-        <v>80.62962962962963</v>
+        <v>78.55813953488372</v>
       </c>
       <c r="P3">
-        <v>2.26841821977238</v>
+        <v>1.727345797930234</v>
       </c>
       <c r="Q3">
-        <v>15.78571428571429</v>
+        <v>16.53061224489796</v>
       </c>
       <c r="R3">
-        <v>1.11818238228524</v>
+        <v>0.9543589760231336</v>
       </c>
       <c r="S3">
-        <v>17.57142857142857</v>
+        <v>18.40816326530612</v>
       </c>
       <c r="T3">
-        <v>1.226944334867228</v>
+        <v>1.04731531068198</v>
       </c>
       <c r="U3">
-        <v>1.785714285714286</v>
+        <v>1.877551020408163</v>
       </c>
       <c r="V3">
-        <v>0.1256281407035177</v>
+        <v>0.1393939393939393</v>
       </c>
       <c r="W3">
-        <v>0.1851893582485039</v>
+        <v>0.2849679740403105</v>
       </c>
       <c r="X3">
-        <v>1.340660347582201</v>
+        <v>0.9311469104978078</v>
       </c>
       <c r="Y3">
-        <v>1.660037421540815</v>
+        <v>1.416922868438793</v>
       </c>
       <c r="Z3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AA3">
-        <v>78.71232876712328</v>
+        <v>78.86734693877551</v>
       </c>
       <c r="AB3">
-        <v>1.851557353062526</v>
+        <v>1.44916219294334</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -730,82 +730,82 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>78.80128205128206</v>
+        <v>79.73636363636363</v>
       </c>
       <c r="D4">
-        <v>1.048075942914934</v>
+        <v>1.374173632805838</v>
       </c>
       <c r="E4">
-        <v>8.384615384615385</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="F4">
-        <v>1.07714283472088</v>
+        <v>1.580622033590541</v>
       </c>
       <c r="G4">
-        <v>12.30769230769231</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="H4">
-        <v>1.218787835097745</v>
+        <v>1.949107387457945</v>
       </c>
       <c r="I4">
-        <v>3.923076923076923</v>
+        <v>-1</v>
       </c>
       <c r="J4">
-        <v>0.1814946619217082</v>
+        <v>-0.06593406593406594</v>
       </c>
       <c r="K4">
-        <v>0.04447663468118276</v>
+        <v>0.386011826341529</v>
       </c>
       <c r="L4">
-        <v>0.8056016899437566</v>
+        <v>1.882148681728072</v>
       </c>
       <c r="M4">
-        <v>1.626554786465178</v>
+        <v>2.50945922878118</v>
       </c>
       <c r="N4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O4">
-        <v>78.55813953488372</v>
+        <v>80.62962962962963</v>
       </c>
       <c r="P4">
-        <v>1.727345797930234</v>
+        <v>2.26841821977238</v>
       </c>
       <c r="Q4">
-        <v>16.53061224489796</v>
+        <v>15.78571428571429</v>
       </c>
       <c r="R4">
-        <v>0.9543589760231336</v>
+        <v>1.11818238228524</v>
       </c>
       <c r="S4">
-        <v>18.40816326530612</v>
+        <v>17.57142857142857</v>
       </c>
       <c r="T4">
-        <v>1.04731531068198</v>
+        <v>1.226944334867228</v>
       </c>
       <c r="U4">
-        <v>1.877551020408163</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="V4">
-        <v>0.1393939393939393</v>
+        <v>0.1256281407035177</v>
       </c>
       <c r="W4">
-        <v>0.2849679740403105</v>
+        <v>0.1851893582485039</v>
       </c>
       <c r="X4">
-        <v>0.9311469104978078</v>
+        <v>1.340660347582201</v>
       </c>
       <c r="Y4">
-        <v>1.416922868438793</v>
+        <v>1.660037421540815</v>
       </c>
       <c r="Z4">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AA4">
-        <v>78.86734693877551</v>
+        <v>78.71232876712328</v>
       </c>
       <c r="AB4">
-        <v>1.44916219294334</v>
+        <v>1.851557353062526</v>
       </c>
     </row>
   </sheetData>
